--- a/EC/Train Runs and Enforcements 2016-07-16.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-16.xlsx
@@ -2571,7 +2571,7 @@
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2596,294 +2596,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3220,7 +2932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3635,6 +3349,10 @@
       <c r="N11" s="109"/>
       <c r="O11" s="109"/>
       <c r="P11" s="109"/>
+      <c r="S11" s="25">
+        <f>AVERAGE(S13:S9999)</f>
+        <v>0.94320987654320998</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="5" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
